--- a/biology/Médecine/Classe_ATC_R/Classe_ATC_R.xlsx
+++ b/biology/Médecine/Classe_ATC_R/Classe_ATC_R.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC R, dénommée « Système respiratoire », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC R, dénommée « Système respiratoire », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>R Système respiratoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">R01 Médicaments pour le nez
 R02 Médicaments pour la gorge
